--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_13_7.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_13_7.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1523040.335407077</v>
+        <v>-1525699.68837909</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -659,7 +659,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>133.458285848007</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,10 +668,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -710,13 +710,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>116.2265708018206</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>240.1832898802238</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -817,19 +817,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>96.8824130665727</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>47.65883542934908</v>
       </c>
     </row>
     <row r="5">
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>254.8821378997816</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -908,13 +908,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>367.0549640352509</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1060,13 +1060,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1102,10 +1102,10 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>111.5767559267674</v>
       </c>
       <c r="U7" t="n">
         <v>286.2271541212006</v>
@@ -1114,10 +1114,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>115.5971804138457</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1133,19 +1133,19 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>180.4206502410178</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>262.2349296649719</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
@@ -1196,10 +1196,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1294,10 +1294,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1306,10 +1306,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -1345,19 +1345,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>154.6719011066913</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>89.42695042856165</v>
       </c>
     </row>
     <row r="11">
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187859</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1421,7 +1421,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1534,16 +1534,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>125.2700607443043</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -1573,19 +1573,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>248.8079271025179</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1768,13 +1768,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>71.5632757833953</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1825,10 +1825,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>13.94435783112388</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2008,19 +2008,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>179.6801338456687</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2084,7 +2084,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2175,7 +2175,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2239,7 +2239,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2248,16 +2248,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S22" t="n">
-        <v>52.54490042791004</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,19 +2479,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>102.1557845699818</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2722,16 +2722,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>18.7084378797731</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,19 +2758,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>248.8079271025179</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2846,7 +2846,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2950,7 +2950,7 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C31" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D31" t="n">
         <v>124.3308255261727</v>
@@ -2959,7 +2959,7 @@
         <v>122.1493151545295</v>
       </c>
       <c r="F31" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G31" t="n">
         <v>141.2394908002292</v>
@@ -2968,7 +2968,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652602</v>
+        <v>56.98118882652567</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808198</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
@@ -3004,7 +3004,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U31" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972045</v>
       </c>
       <c r="V31" t="n">
         <v>227.8529958317883</v>
@@ -3013,7 +3013,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X31" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y31" t="n">
         <v>194.3000058600551</v>
@@ -3089,7 +3089,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174118</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3187,19 +3187,19 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261728</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E34" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002292</v>
+        <v>141.239490800229</v>
       </c>
       <c r="H34" t="n">
         <v>116.0100653541842</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808198</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
@@ -3241,7 +3241,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972045</v>
       </c>
       <c r="V34" t="n">
         <v>227.8529958317883</v>
@@ -3250,7 +3250,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y34" t="n">
         <v>194.3000058600551</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3424,7 +3424,7 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D37" t="n">
         <v>124.3308255261727</v>
@@ -3433,16 +3433,16 @@
         <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H37" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652586</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808201</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3478,7 +3478,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972045</v>
       </c>
       <c r="V37" t="n">
         <v>227.8529958317883</v>
@@ -3487,7 +3487,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y37" t="n">
         <v>194.3000058600551</v>
@@ -3667,7 +3667,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3901,7 +3901,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E43" t="n">
         <v>122.1493151545295</v>
@@ -3916,7 +3916,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4304,40 +4304,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>835.9140537841261</v>
+        <v>597.0390406990318</v>
       </c>
       <c r="C2" t="n">
-        <v>466.9515368437143</v>
+        <v>462.2326913576106</v>
       </c>
       <c r="D2" t="n">
-        <v>466.9515368437143</v>
+        <v>462.2326913576106</v>
       </c>
       <c r="E2" t="n">
-        <v>466.9515368437143</v>
+        <v>462.2326913576106</v>
       </c>
       <c r="F2" t="n">
-        <v>466.9515368437143</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4358,22 +4358,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2444.93875183266</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U2" t="n">
-        <v>2191.35769109684</v>
+        <v>2100.012626270159</v>
       </c>
       <c r="V2" t="n">
-        <v>1948.748307379442</v>
+        <v>2100.012626270159</v>
       </c>
       <c r="W2" t="n">
-        <v>1595.979652109328</v>
+        <v>1747.243971000045</v>
       </c>
       <c r="X2" t="n">
-        <v>1222.513893848248</v>
+        <v>1373.778212738965</v>
       </c>
       <c r="Y2" t="n">
-        <v>1222.513893848248</v>
+        <v>983.6388807631536</v>
       </c>
     </row>
     <row r="3">
@@ -4401,34 +4401,34 @@
         <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057875</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>423.1489515180662</v>
+        <v>551.602574876695</v>
       </c>
       <c r="L3" t="n">
-        <v>717.8525085495379</v>
+        <v>846.3061319081667</v>
       </c>
       <c r="M3" t="n">
-        <v>1081.114527508758</v>
+        <v>1480.485115687205</v>
       </c>
       <c r="N3" t="n">
-        <v>1468.399656105703</v>
+        <v>1867.77024428415</v>
       </c>
       <c r="O3" t="n">
-        <v>1967.526114878149</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P3" t="n">
-        <v>2214.708848710446</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1611.069229423535</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="C4" t="n">
-        <v>1442.133046495629</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="D4" t="n">
-        <v>1292.016407083293</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="E4" t="n">
-        <v>1292.016407083293</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F4" t="n">
-        <v>1145.126459585383</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G4" t="n">
-        <v>977.1399948936612</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H4" t="n">
-        <v>977.1399948936612</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I4" t="n">
-        <v>977.1399948936612</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>1002.60916787878</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K4" t="n">
-        <v>1174.299679627706</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>1449.530858294981</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>1750.112669035317</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
-        <v>2048.981932571481</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>2309.019775324693</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>2508.006390496682</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>2464.478305100587</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S4" t="n">
-        <v>2464.478305100587</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T4" t="n">
-        <v>2241.499824295322</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U4" t="n">
-        <v>2241.499824295322</v>
+        <v>825.1371474485136</v>
       </c>
       <c r="V4" t="n">
-        <v>2241.499824295322</v>
+        <v>570.4526592426267</v>
       </c>
       <c r="W4" t="n">
-        <v>2241.499824295322</v>
+        <v>281.0354892056661</v>
       </c>
       <c r="X4" t="n">
-        <v>2013.510273397305</v>
+        <v>281.0354892056661</v>
       </c>
       <c r="Y4" t="n">
-        <v>1792.717694253775</v>
+        <v>232.8952513982428</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1217.950988797912</v>
+        <v>1330.099343395678</v>
       </c>
       <c r="C5" t="n">
-        <v>1217.950988797912</v>
+        <v>1330.099343395678</v>
       </c>
       <c r="D5" t="n">
-        <v>859.685290191162</v>
+        <v>1330.099343395678</v>
       </c>
       <c r="E5" t="n">
-        <v>473.8970375929177</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="F5" t="n">
-        <v>62.91113280331018</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G5" t="n">
-        <v>51.24678656800312</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800312</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362824</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872921</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923563</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926627</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2228.894479532451</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U5" t="n">
-        <v>1975.313418796631</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="V5" t="n">
-        <v>1975.313418796631</v>
+        <v>1977.695380320764</v>
       </c>
       <c r="W5" t="n">
-        <v>1975.313418796631</v>
+        <v>1977.695380320764</v>
       </c>
       <c r="X5" t="n">
-        <v>1604.550828862034</v>
+        <v>1977.695380320764</v>
       </c>
       <c r="Y5" t="n">
-        <v>1604.550828862034</v>
+        <v>1587.556048344952</v>
       </c>
     </row>
     <row r="6">
@@ -4641,28 +4641,28 @@
         <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800313</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370162</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>423.1489515180662</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L6" t="n">
-        <v>1057.327935297105</v>
+        <v>717.8525085495377</v>
       </c>
       <c r="M6" t="n">
-        <v>1420.589954256325</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N6" t="n">
-        <v>1807.87508285327</v>
+        <v>1565.661695681274</v>
       </c>
       <c r="O6" t="n">
-        <v>2139.945518029432</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P6" t="n">
-        <v>2387.128251861729</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>51.24678656800313</v>
+        <v>367.1463448421176</v>
       </c>
       <c r="C7" t="n">
-        <v>51.24678656800313</v>
+        <v>367.1463448421176</v>
       </c>
       <c r="D7" t="n">
-        <v>51.24678656800313</v>
+        <v>367.1463448421176</v>
       </c>
       <c r="E7" t="n">
-        <v>51.24678656800313</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="F7" t="n">
-        <v>51.24678656800313</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800313</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800313</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800313</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312202</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.86271359008</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S7" t="n">
-        <v>1337.233965749941</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="T7" t="n">
-        <v>1114.255484944676</v>
+        <v>1421.158919724658</v>
       </c>
       <c r="U7" t="n">
-        <v>825.137147448514</v>
+        <v>1132.040582228495</v>
       </c>
       <c r="V7" t="n">
-        <v>570.4526592426272</v>
+        <v>877.3560940226084</v>
       </c>
       <c r="W7" t="n">
-        <v>570.4526592426272</v>
+        <v>587.9389239856478</v>
       </c>
       <c r="X7" t="n">
-        <v>453.6878305417729</v>
+        <v>587.9389239856478</v>
       </c>
       <c r="Y7" t="n">
-        <v>232.8952513982428</v>
+        <v>367.1463448421176</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2182.266054653545</v>
+        <v>1308.370295943747</v>
       </c>
       <c r="C8" t="n">
-        <v>1813.303537713133</v>
+        <v>1126.127214892214</v>
       </c>
       <c r="D8" t="n">
-        <v>1455.037839106383</v>
+        <v>767.8615162854633</v>
       </c>
       <c r="E8" t="n">
-        <v>1190.154071768027</v>
+        <v>382.0732636872191</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>375.1277629380156</v>
       </c>
       <c r="G8" t="n">
         <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993394</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U8" t="n">
-        <v>2866.09759726723</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2535.034709923659</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2182.266054653545</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X8" t="n">
-        <v>2182.266054653545</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y8" t="n">
-        <v>2182.266054653545</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4857,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927783</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064585</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
@@ -4887,46 +4887,46 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,43 +4936,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>847.3980557622425</v>
+        <v>500.476813167026</v>
       </c>
       <c r="C10" t="n">
-        <v>678.4618728343356</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="D10" t="n">
-        <v>528.3452334219999</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="E10" t="n">
-        <v>380.4321398396067</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="F10" t="n">
-        <v>380.4321398396067</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143257</v>
+        <v>163.837793613838</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1735.60866391532</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1513.842048484846</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1513.842048484846</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1513.842048484846</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>1224.424878447885</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X10" t="n">
-        <v>1068.190634905773</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="Y10" t="n">
-        <v>847.3980557622425</v>
+        <v>500.476813167026</v>
       </c>
     </row>
     <row r="11">
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111715</v>
@@ -5045,13 +5045,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5060,31 +5060,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5112,10 +5112,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
         <v>245.2306927803937</v>
@@ -5130,16 +5130,16 @@
         <v>1074.481071167373</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2253.988764961266</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>803.8641191832228</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="C13" t="n">
-        <v>634.9279362553159</v>
+        <v>747.3584617859342</v>
       </c>
       <c r="D13" t="n">
-        <v>484.8112968429802</v>
+        <v>597.2418223735984</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429802</v>
+        <v>449.3287287912053</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>302.4387812932949</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1723.711884091971</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1434.29471405501</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1206.305163156993</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>985.5125840134625</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="14">
@@ -5258,22 +5258,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
@@ -5364,13 +5364,13 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>1859.536823237711</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2252.221377756499</v>
       </c>
       <c r="P15" t="n">
         <v>2283.159972732779</v>
@@ -5410,16 +5410,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1024.063349920561</v>
+        <v>948.5505208511906</v>
       </c>
       <c r="C16" t="n">
-        <v>855.1271669926539</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="D16" t="n">
-        <v>705.0105275803181</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E16" t="n">
-        <v>557.097433997925</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
         <v>484.8112968429803</v>
@@ -5449,37 +5449,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832661</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510507</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854705</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648818</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1433.701365648818</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1205.7118147508</v>
+        <v>1130.19898568143</v>
       </c>
       <c r="Y16" t="n">
-        <v>1205.7118147508</v>
+        <v>1130.19898568143</v>
       </c>
     </row>
     <row r="17">
@@ -5501,7 +5501,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168615</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,25 +5510,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>680.0291294438179</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438179</v>
       </c>
       <c r="N18" t="n">
-        <v>1896.176478190825</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>809.0422355233313</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>640.1060525954244</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>489.9894131830887</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E19" t="n">
-        <v>489.9894131830887</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5674,10 +5674,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1029.834814666861</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>809.0422355233313</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5747,31 +5747,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438179</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>931.4710609784063</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>762.5348780504994</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D22" t="n">
-        <v>612.4182386381636</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E22" t="n">
-        <v>464.5051450557705</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F22" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5911,10 +5911,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2393.887426582372</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2174.285961605313</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1885.210734949511</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1630.526246743624</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1341.109076706663</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1113.119525808646</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1113.119525808646</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5978,28 +5978,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6069,19 +6069,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>175.8744207939068</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637306</v>
+        <v>671.2000270096656</v>
       </c>
       <c r="M24" t="n">
-        <v>1186.520756890282</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N24" t="n">
-        <v>1814.118720444889</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P24" t="n">
         <v>2319.799627685893</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6145,52 +6145,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6212,34 +6212,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>803.8641191832229</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>634.927936255316</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1723.711884091971</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1434.29471405501</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1206.305163156993</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>985.5125840134626</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6437,37 +6437,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014779</v>
@@ -6482,31 +6482,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266881</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150027</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345478</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H31" t="n">
-        <v>151.3734194384022</v>
+        <v>151.3734194384018</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>198.094482495415</v>
@@ -6686,61 +6686,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L33" t="n">
         <v>589.1422692637306</v>
       </c>
       <c r="M33" t="n">
-        <v>1186.520756890282</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N33" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G34" t="n">
         <v>268.5553036345477</v>
@@ -6853,7 +6853,7 @@
         <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>198.094482495415</v>
@@ -6932,22 +6932,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319329</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656823</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150028</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942659</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F37" t="n">
         <v>411.2214559580115</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797189</v>
@@ -7096,10 +7096,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380727</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311322</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7114,16 +7114,16 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931275</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U37" t="n">
         <v>1978.840049838286</v>
@@ -7160,7 +7160,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,7 +7169,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
         <v>378.192580311172</v>
@@ -7248,22 +7248,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M39" t="n">
-        <v>691.1951506745238</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N39" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
         <v>1859.536823237711</v>
@@ -7318,7 +7318,7 @@
         <v>533.5814564942655</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G40" t="n">
         <v>268.5553036345476</v>
@@ -7330,16 +7330,16 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380733</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311327</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N40" t="n">
         <v>1785.769117656414</v>
@@ -7351,13 +7351,13 @@
         <v>2496.057455973197</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
         <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
@@ -7406,13 +7406,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7485,25 +7485,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1552.432392194325</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2104.342122433612</v>
       </c>
       <c r="P42" t="n">
         <v>2283.159972732779</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319315</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656809</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150014</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942646</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580106</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345468</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
@@ -7570,10 +7570,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380726</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311322</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7597,22 +7597,22 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X43" t="n">
         <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="44">
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D46" t="n">
-        <v>656.964603115002</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942651</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7819,25 +7819,25 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q46" t="n">
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
@@ -7846,10 +7846,10 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y46" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
   </sheetData>
@@ -8055,31 +8055,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>255.8421700460947</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>273.6534998179982</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>168.743458178064</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8298,25 +8298,25 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>342.9044714621888</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>98.24448441976853</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>305.1601501039158</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>60.50016306149485</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -22547,25 +22547,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>231.8146059230006</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>200.990719286792</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,7 +22595,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -22604,7 +22604,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>87.56896858991112</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22705,25 +22705,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22768,7 +22768,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23422,16 +23422,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>40.25407754796456</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,19 +23461,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>3.329716221310065</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23656,13 +23656,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>73.85777223953595</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23713,10 +23713,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>211.7652975579133</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>46.02952154336845</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24127,7 +24127,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24136,16 +24136,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>128.4813855737345</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24610,13 +24610,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>126.7126101431581</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24646,19 +24646,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>3.329716221310065</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -26311,16 +26311,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>116044.8438455267</v>
+        <v>116044.8438455268</v>
       </c>
       <c r="C2" t="n">
         <v>143682.3097262495</v>
       </c>
       <c r="D2" t="n">
-        <v>143682.3097262497</v>
+        <v>143682.3097262496</v>
       </c>
       <c r="E2" t="n">
-        <v>141250.6549457511</v>
+        <v>141250.654945751</v>
       </c>
       <c r="F2" t="n">
         <v>141250.6549457511</v>
@@ -26329,7 +26329,7 @@
         <v>141250.6549457511</v>
       </c>
       <c r="H2" t="n">
-        <v>141250.6549457511</v>
+        <v>141250.654945751</v>
       </c>
       <c r="I2" t="n">
         <v>141250.6549457511</v>
@@ -26350,10 +26350,10 @@
         <v>143682.3097262497</v>
       </c>
       <c r="O2" t="n">
+        <v>143682.3097262496</v>
+      </c>
+      <c r="P2" t="n">
         <v>143682.3097262497</v>
-      </c>
-      <c r="P2" t="n">
-        <v>143682.3097262496</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>192627.1404403379</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073548</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26390,13 +26390,13 @@
         <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
-        <v>19427.71799363176</v>
+        <v>19427.71799363174</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819077</v>
+        <v>48293.97000819066</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551172</v>
+        <v>85055.02793551193</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,43 +26418,43 @@
         <v>45381.8193949511</v>
       </c>
       <c r="C4" t="n">
-        <v>135522.136976983</v>
+        <v>135522.1369769832</v>
       </c>
       <c r="D4" t="n">
-        <v>87914.29116309554</v>
+        <v>87914.29116309561</v>
       </c>
       <c r="E4" t="n">
-        <v>8727.256391744317</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="F4" t="n">
         <v>8727.256391744282</v>
       </c>
       <c r="G4" t="n">
-        <v>8727.256391744297</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="H4" t="n">
-        <v>8727.256391744295</v>
+        <v>8727.256391744308</v>
       </c>
       <c r="I4" t="n">
-        <v>8727.256391744293</v>
+        <v>8727.256391744284</v>
       </c>
       <c r="J4" t="n">
-        <v>8727.256391744295</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="K4" t="n">
+        <v>16718.11565483775</v>
+      </c>
+      <c r="L4" t="n">
+        <v>16718.11565483779</v>
+      </c>
+      <c r="M4" t="n">
         <v>16718.11565483774</v>
-      </c>
-      <c r="L4" t="n">
-        <v>16718.11565483774</v>
-      </c>
-      <c r="M4" t="n">
-        <v>16718.11565483776</v>
       </c>
       <c r="N4" t="n">
         <v>16718.11565483775</v>
       </c>
       <c r="O4" t="n">
-        <v>16718.11565483775</v>
+        <v>16718.11565483774</v>
       </c>
       <c r="P4" t="n">
         <v>16718.11565483775</v>
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1137026.531565189</v>
+        <v>-1137421.352506342</v>
       </c>
       <c r="C6" t="n">
-        <v>-84777.59969057824</v>
+        <v>-84777.59969057832</v>
       </c>
       <c r="D6" t="n">
-        <v>-244793.0624385771</v>
+        <v>-244793.0624385772</v>
       </c>
       <c r="E6" t="n">
-        <v>-294011.5930772551</v>
+        <v>-294046.3310026913</v>
       </c>
       <c r="F6" t="n">
-        <v>31400.86873009974</v>
+        <v>31366.13080466402</v>
       </c>
       <c r="G6" t="n">
-        <v>31400.86873009968</v>
+        <v>31366.13080466403</v>
       </c>
       <c r="H6" t="n">
-        <v>31400.86873009965</v>
+        <v>31366.13080466395</v>
       </c>
       <c r="I6" t="n">
-        <v>31400.86873009965</v>
+        <v>31366.13080466405</v>
       </c>
       <c r="J6" t="n">
-        <v>-136204.3090798829</v>
+        <v>-136239.0470053185</v>
       </c>
       <c r="K6" t="n">
         <v>4372.360223864744</v>
       </c>
       <c r="L6" t="n">
-        <v>-24493.89179069427</v>
+        <v>-24493.89179069418</v>
       </c>
       <c r="M6" t="n">
-        <v>-61254.94971801525</v>
+        <v>-61254.94971801546</v>
       </c>
       <c r="N6" t="n">
-        <v>23800.07821749654</v>
+        <v>23800.07821749651</v>
       </c>
       <c r="O6" t="n">
-        <v>23800.07821749654</v>
+        <v>23800.07821749648</v>
       </c>
       <c r="P6" t="n">
-        <v>4372.360223864671</v>
+        <v>4372.360223864758</v>
       </c>
     </row>
   </sheetData>
@@ -26710,19 +26710,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>24.28464749203967</v>
+      </c>
+      <c r="L2" t="n">
+        <v>24.28464749203967</v>
+      </c>
+      <c r="M2" t="n">
+        <v>24.28464749203967</v>
+      </c>
+      <c r="N2" t="n">
+        <v>24.28464749203971</v>
+      </c>
+      <c r="O2" t="n">
         <v>24.2846474920397</v>
-      </c>
-      <c r="L2" t="n">
-        <v>24.2846474920397</v>
-      </c>
-      <c r="M2" t="n">
-        <v>24.2846474920397</v>
-      </c>
-      <c r="N2" t="n">
-        <v>24.28464749203972</v>
-      </c>
-      <c r="O2" t="n">
-        <v>24.28464749203971</v>
       </c>
       <c r="P2" t="n">
         <v>24.28464749203973</v>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26932,7 +26932,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>155.7118084757592</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>190.8166233022538</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27039,10 +27039,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022536</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>190.8166233022538</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,7 +27382,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>153.6923223338909</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,16 +27427,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>90.43161417841313</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27552,10 +27552,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>4.675159353000922</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>170.9258179227457</v>
       </c>
     </row>
     <row r="5">
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>127.851703763699</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27628,13 +27628,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>2.676136643218115</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27780,16 +27780,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27822,10 +27822,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>109.1719400704445</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27834,10 +27834,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>110.1124749751914</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27853,25 +27853,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>184.8522415299897</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>119.6954404072899</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28014,10 +28014,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28026,10 +28026,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28065,19 +28065,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>71.0377542823459</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>129.1577029235331</v>
       </c>
     </row>
     <row r="11">
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>7.389644451905042e-13</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28804,7 +28804,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -28855,7 +28855,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -29329,7 +29329,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -29566,7 +29566,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="C31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="D31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="E31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="F31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="G31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="H31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="I31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="J31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="K31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="L31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="M31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="N31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="O31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="P31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="R31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="S31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="T31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="U31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="V31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="W31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="X31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
     </row>
     <row r="32">
@@ -29809,7 +29809,7 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="C34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="D34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="E34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="F34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="G34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="H34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="I34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="J34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="K34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="L34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="M34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="N34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="O34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="P34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="R34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="S34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="T34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="U34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="V34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="W34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="X34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
     </row>
     <row r="35">
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="C37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="D37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="E37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="F37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="G37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="H37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="I37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="J37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="K37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="L37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="M37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="N37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="O37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="P37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="R37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="S37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="T37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="U37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="V37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="W37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="X37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="44">
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31121,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,34 +31133,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31218,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31358,10 +31358,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31370,34 +31370,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31455,10 +31455,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31467,16 +31467,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31522,40 +31522,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31674,43 +31674,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31850,19 +31850,19 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>403.8524967138027</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>163.4402738502018</v>
       </c>
       <c r="Q12" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32084,16 +32084,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>322.6999460717714</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>165.2255134509767</v>
       </c>
       <c r="Q15" t="n">
         <v>375.599612848529</v>
@@ -32224,37 +32224,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32263,10 +32263,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,40 +32309,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>240.4469701760394</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>359.7096985496635</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q18" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32388,28 +32388,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32418,7 +32418,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32461,37 +32461,37 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159444</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32500,10 +32500,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32546,40 +32546,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>732.4825987614918</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32625,28 +32625,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N22" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32655,7 +32655,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32789,37 +32789,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>220.7280629601519</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>225.4828684302377</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32944,34 +32944,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33026,37 +33026,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>577.7447198439381</v>
       </c>
       <c r="M27" t="n">
-        <v>444.2274915982894</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33260,16 +33260,16 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>444.2274915982894</v>
+        <v>395.1848490935921</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33278,13 +33278,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33436,7 +33436,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
         <v>593.8732233669223</v>
@@ -33506,22 +33506,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>233.9389431948335</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>461.1007071927452</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,19 +33731,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>211.0222436375122</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>444.2274915982894</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
@@ -33752,13 +33752,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33968,25 +33968,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>270.9716933356906</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>688.8020111197787</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34138,7 +34138,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N41" t="n">
         <v>981.2715114159425</v>
@@ -34205,19 +34205,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
@@ -34226,7 +34226,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>314.5984986256103</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
@@ -34442,34 +34442,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>233.9389431948335</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>442.4296662895795</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>504.168140174187</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313263</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>640.5848321000391</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>391.197099592874</v>
+        <v>489.4415840126424</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961231</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>176.9808853923494</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35498,19 +35498,19 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>272.5107846304694</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>29.46586643587157</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35732,16 +35732,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>191.358233988438</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>31.25110603664647</v>
       </c>
       <c r="Q15" t="n">
         <v>235.6178387625075</v>
@@ -35817,7 +35817,7 @@
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060437</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,31 +35878,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>101.8925903961653</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>228.3679864663302</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q18" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36048,19 +36048,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,31 +36115,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193534</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>590.3485648394735</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36285,19 +36285,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,25 +36437,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>82.88662398579289</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>82.88662398579324</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>439.190340064064</v>
       </c>
       <c r="M27" t="n">
-        <v>302.093457676271</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36908,16 +36908,16 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>302.093457676271</v>
+        <v>253.0508151715738</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -36926,13 +36926,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K31" t="n">
         <v>288.6172359016746</v>
@@ -37005,7 +37005,7 @@
         <v>397.5465471980851</v>
       </c>
       <c r="P31" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q31" t="n">
         <v>144.686904791938</v>
@@ -37084,7 +37084,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
         <v>371.5675334924728</v>
@@ -37154,22 +37154,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>318.5044627483008</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K34" t="n">
         <v>288.6172359016746</v>
@@ -37242,7 +37242,7 @@
         <v>397.5465471980851</v>
       </c>
       <c r="P34" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q34" t="n">
         <v>144.686904791938</v>
@@ -37379,19 +37379,19 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>73.18080466315317</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>302.093457676271</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
@@ -37400,13 +37400,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K37" t="n">
         <v>288.6172359016746</v>
@@ -37479,7 +37479,7 @@
         <v>397.5465471980851</v>
       </c>
       <c r="P37" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q37" t="n">
         <v>144.686904791938</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37616,25 +37616,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>132.4173135558164</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>546.2057666753343</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
@@ -37701,7 +37701,7 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L40" t="n">
         <v>418.6266618111712</v>
@@ -37719,7 +37719,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37786,7 +37786,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
@@ -37853,19 +37853,19 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
@@ -37874,7 +37874,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>180.6240912112801</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
